--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\say2y\OneDrive\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EEEBD7-989E-49A1-97DF-376E0EF81419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD54D775-0461-4286-BFE0-ACB9DECF6083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="483">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -1475,7 +1475,25 @@
     <t>not done</t>
   </si>
   <si>
-    <t>ND(hash maps)</t>
+    <t>hash maps</t>
+  </si>
+  <si>
+    <t>sliding window</t>
+  </si>
+  <si>
+    <t>dynamic prog</t>
+  </si>
+  <si>
+    <t>similar as 37</t>
+  </si>
+  <si>
+    <t>same 7</t>
+  </si>
+  <si>
+    <t>not done (DP)</t>
+  </si>
+  <si>
+    <t>acquire,match,release</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1822,6 +1840,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1835,7 +1871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2066,6 +2102,70 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2298,8 +2398,8 @@
   </sheetPr>
   <dimension ref="A1:AA919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2313,11 +2413,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="53"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2343,11 +2443,11 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="15">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="54"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2373,9 +2473,9 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="15">
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="54"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2401,9 +2501,9 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="15">
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="54"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2496,7 +2596,7 @@
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="106" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="56"/>
@@ -2532,7 +2632,7 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="57"/>
       <c r="F8" s="2" t="s">
         <v>468</v>
@@ -3434,7 +3534,7 @@
       <c r="D33" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="54"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -3506,7 +3606,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="81" t="s">
         <v>476</v>
       </c>
       <c r="F35" s="2"/>
@@ -3539,11 +3639,11 @@
       <c r="B36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="46" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="54"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3567,40 +3667,42 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="15.6">
-      <c r="A37" s="48">
+    <row r="37" spans="1:27" s="79" customFormat="1" ht="15.6">
+      <c r="A37" s="75">
         <v>26</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="83" t="s">
+        <v>469</v>
+      </c>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="78"/>
     </row>
     <row r="38" spans="1:27" ht="15">
       <c r="B38" s="18"/>
@@ -3658,330 +3760,334 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="15.6">
-      <c r="A40" s="48">
+    <row r="40" spans="1:27" s="44" customFormat="1" ht="15.6">
+      <c r="A40" s="51">
         <v>27</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.6">
-      <c r="A41" s="48">
+      <c r="D40" s="86"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+    </row>
+    <row r="41" spans="1:27" s="44" customFormat="1" ht="15.6">
+      <c r="A41" s="51">
         <v>28</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.6">
-      <c r="A42" s="48">
+      <c r="D41" s="86"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+    </row>
+    <row r="42" spans="1:27" s="44" customFormat="1" ht="15.6">
+      <c r="A42" s="51">
         <v>29</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.6">
-      <c r="A43" s="48">
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+    </row>
+    <row r="43" spans="1:27" s="95" customFormat="1" ht="15.6">
+      <c r="A43" s="90">
         <v>30</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.6">
-      <c r="A44" s="48">
+      <c r="D43" s="93"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="94"/>
+    </row>
+    <row r="44" spans="1:27" s="73" customFormat="1" ht="15.6">
+      <c r="A44" s="69">
         <v>31</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.6">
-      <c r="A45" s="48">
+      <c r="E44" s="56"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+    </row>
+    <row r="45" spans="1:27" s="44" customFormat="1" ht="15.6">
+      <c r="A45" s="51">
         <v>32</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.6">
-      <c r="A46" s="48">
+      <c r="D45" s="86"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+    </row>
+    <row r="46" spans="1:27" s="73" customFormat="1" ht="15.6">
+      <c r="A46" s="69">
         <v>33</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-    </row>
-    <row r="47" spans="1:27" ht="15.6">
-      <c r="A47" s="48">
+      <c r="E46" s="56"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+    </row>
+    <row r="47" spans="1:27" s="73" customFormat="1" ht="15.6">
+      <c r="A47" s="69">
         <v>34</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.6">
-      <c r="A48" s="48">
+      <c r="E47" s="101" t="s">
+        <v>477</v>
+      </c>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+    </row>
+    <row r="48" spans="1:27" s="79" customFormat="1" ht="15.6">
+      <c r="A48" s="75">
         <v>35</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="78"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="78"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="78"/>
     </row>
     <row r="49" spans="1:27" ht="15.6">
       <c r="A49" s="48">
@@ -3990,7 +4096,7 @@
       <c r="B49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="22" t="s">
@@ -4020,225 +4126,237 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="15.6">
-      <c r="A50" s="48">
+    <row r="50" spans="1:27" s="79" customFormat="1" ht="15.6">
+      <c r="A50" s="75">
         <v>37</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.6">
-      <c r="A51" s="48">
+      <c r="E50" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="78"/>
+      <c r="W50" s="78"/>
+      <c r="X50" s="78"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="78"/>
+      <c r="AA50" s="78"/>
+    </row>
+    <row r="51" spans="1:27" s="79" customFormat="1" ht="15.6">
+      <c r="A51" s="75">
         <v>38</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-    </row>
-    <row r="52" spans="1:27" ht="15.6">
-      <c r="A52" s="48">
+      <c r="E51" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="78"/>
+      <c r="T51" s="78"/>
+      <c r="U51" s="78"/>
+      <c r="V51" s="78"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
+      <c r="AA51" s="78"/>
+    </row>
+    <row r="52" spans="1:27" s="79" customFormat="1" ht="15.6">
+      <c r="A52" s="75">
         <v>39</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.6">
-      <c r="A53" s="48">
+      <c r="D52" s="98"/>
+      <c r="E52" s="83" t="s">
+        <v>480</v>
+      </c>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
+      <c r="V52" s="78"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="78"/>
+    </row>
+    <row r="53" spans="1:27" s="79" customFormat="1" ht="15.6">
+      <c r="A53" s="75">
         <v>40</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-    </row>
-    <row r="54" spans="1:27" ht="15.6">
-      <c r="A54" s="48">
+      <c r="E53" s="80" t="s">
+        <v>481</v>
+      </c>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="78"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="78"/>
+    </row>
+    <row r="54" spans="1:27" s="79" customFormat="1" ht="15.6">
+      <c r="A54" s="75">
         <v>41</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-    </row>
-    <row r="55" spans="1:27" ht="15.6">
-      <c r="A55" s="48">
+      <c r="E54" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="78"/>
+      <c r="T54" s="78"/>
+      <c r="U54" s="78"/>
+      <c r="V54" s="78"/>
+      <c r="W54" s="78"/>
+      <c r="X54" s="78"/>
+      <c r="Y54" s="78"/>
+      <c r="Z54" s="78"/>
+      <c r="AA54" s="78"/>
+    </row>
+    <row r="55" spans="1:27" s="73" customFormat="1" ht="15.6">
+      <c r="A55" s="69">
         <v>42</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
+      <c r="E55" s="80" t="s">
+        <v>481</v>
+      </c>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="72"/>
+      <c r="W55" s="72"/>
+      <c r="X55" s="72"/>
+      <c r="Y55" s="72"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
     </row>
     <row r="56" spans="1:27" ht="15.6">
       <c r="A56" s="48">
@@ -30593,11 +30711,11 @@
   <customSheetViews>
     <customSheetView guid="{C9B4E4F6-131D-4ACF-A1C5-B75AFE3037F0}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{07692C37-810E-4E10-9643-F251448642D3}"/>
+      <autoFilter ref="A293:C332" xr:uid="{C6FE6534-6DA6-44A2-A05C-B0397A6E54A8}"/>
     </customSheetView>
     <customSheetView guid="{8C493AE5-5F8C-4A36-9EB9-92975DCBE5EA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{6C9B1AE8-B749-4836-910F-68F24C9E9C2E}"/>
+      <autoFilter ref="A11:C37" xr:uid="{1FAD6815-B07B-490D-9933-367A4D3EDADE}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31006,28 +31124,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
     </row>
     <row r="2" spans="1:3" ht="13.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
